--- a/Assignment/assignment.xlsx
+++ b/Assignment/assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hope\Python\Machine learning\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\AILearn\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF4E16-E52B-46C6-81C5-ADDEC8596D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCDE36F-A619-4DEA-AF47-8B8AB9823555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="4635" windowWidth="21600" windowHeight="11385" xr2:uid="{839D26A4-EE79-4BCA-945E-FFC016CC73F7}"/>
+    <workbookView xWindow="7200" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{839D26A4-EE79-4BCA-945E-FFC016CC73F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>kernel</t>
   </si>
@@ -72,6 +72,39 @@
   </si>
   <si>
     <t>multiple linear regression</t>
+  </si>
+  <si>
+    <t>Random forest regressor</t>
+  </si>
+  <si>
+    <t>n_estimator</t>
+  </si>
+  <si>
+    <t>criterion</t>
+  </si>
+  <si>
+    <t>squared_error</t>
+  </si>
+  <si>
+    <t>absolute_error</t>
+  </si>
+  <si>
+    <t>friedman_mse</t>
+  </si>
+  <si>
+    <t>poisson</t>
+  </si>
+  <si>
+    <t>Decision tree</t>
+  </si>
+  <si>
+    <t>splitter</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
 </sst>
 </file>
@@ -467,13 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0222D9-15B1-446B-9F2A-4044C31A2692}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -675,6 +713,214 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>0.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
